--- a/results/VR_GAME_RESULTS_EXTENDED.xlsx
+++ b/results/VR_GAME_RESULTS_EXTENDED.xlsx
@@ -9,17 +9,18 @@
   </bookViews>
   <sheets>
     <sheet name="full_data" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Time" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="energy" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="NwUsage" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Delay" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="RAM" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Time" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="energy" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="NwUsage" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Delay" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="40">
   <si>
     <t>1_4_10</t>
   </si>
@@ -75,6 +76,12 @@
     <t>Network Usage</t>
   </si>
   <si>
+    <t>RAM</t>
+  </si>
+  <si>
+    <t>RAM ALL</t>
+  </si>
+  <si>
     <t>1_4_5</t>
   </si>
   <si>
@@ -90,18 +97,6 @@
     <t>16_4_5</t>
   </si>
   <si>
-    <t>Headset A – Fog</t>
-  </si>
-  <si>
-    <t>Headset B – Fog</t>
-  </si>
-  <si>
-    <t>Headset A – Cloud</t>
-  </si>
-  <si>
-    <t>Headset B – Cloud</t>
-  </si>
-  <si>
     <t>Config 1</t>
   </si>
   <si>
@@ -115,6 +110,18 @@
   </si>
   <si>
     <t>Config 5</t>
+  </si>
+  <si>
+    <t>Headset A – Fog</t>
+  </si>
+  <si>
+    <t>Headset B – Fog</t>
+  </si>
+  <si>
+    <t>Headset A – Cloud</t>
+  </si>
+  <si>
+    <t>Headset B – Cloud</t>
   </si>
   <si>
     <t>Physical Infrastructure Configurations</t>
@@ -341,7 +348,1716 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="1300">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>RAM Consumed in Simulation</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RAM!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Headset A – Fog</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>RAM!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Config 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Config 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Config 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Config 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Config 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RAM!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>29.584099</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.739859</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.489023</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47.422601</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.910272</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RAM!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Headset B – Fog</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>RAM!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Config 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Config 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Config 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Config 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Config 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RAM!$B$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>27.464836</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.18162</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.782548</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.613804</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.150376</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RAM!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Headset A – Cloud</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>RAM!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Config 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Config 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Config 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Config 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Config 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RAM!$B$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>24.149005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.553005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.206509</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.619787</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.096904</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RAM!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Headset B – Cloud</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>RAM!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Config 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Config 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Config 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Config 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Config 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RAM!$B$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20.485266</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.282834</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.764136</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.062122</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.195477</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:axId val="11230772"/>
+        <c:axId val="37881018"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="11230772"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Physical Topology Configurations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="37881018"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="37881018"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Heap Used (in MegaBytes)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="11230772"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="1" sz="1300">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Execution Time of Simulation</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Time!$A$1:$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Headset A – Fog</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:size val="6"/>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Time!$A$7:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Config 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Config 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Config 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Config 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Config 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Time!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1541</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2665</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2905</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3499</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4925</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Time!$A$2:$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Headset B – Fog</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:size val="6"/>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Time!$A$7:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Config 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Config 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Config 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Config 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Config 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Time!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1420</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1701</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2682</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4174</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7771</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Time!$A$3:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Headset A – Cloud</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:size val="6"/>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Time!$A$7:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Config 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Config 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Config 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Config 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Config 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Time!$B$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1653</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1955</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2609</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5858</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10522</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Time!$A$4:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Headset B – Cloud</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:size val="6"/>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Time!$A$7:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Config 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Config 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Config 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Config 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Config 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Time!$B$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2113</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2133</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3415</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7385</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12748</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="442847"/>
+        <c:axId val="20700059"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="442847"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Physical topology configuration</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="20700059"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="20700059"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Execution time (in milliseconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="442847"/>
+        <c:crossesAt val="0"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="1" sz="1300">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Energy consumption</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>energy!$B$4:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Smartphones</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>energy!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Headset A – Fog</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Headset A – Cloud</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Headset B – Fog</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Headset B – Cloud</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>energy!$C$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>26698.656</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26698.656</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16325.2430382097</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26698.656</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>energy!$B$3:$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Edge Devices</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>energy!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Headset A – Fog</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Headset A – Cloud</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Headset B – Fog</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Headset B – Cloud</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>energy!$C$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2786.18826214047</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1780.78632886423</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4889.50284828172</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3952.88403569707</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>energy!$B$2:$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Datacenter Vms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>energy!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Headset A – Fog</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Headset A – Cloud</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Headset B – Fog</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Headset B – Cloud</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>energy!$C$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>29.664</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3708.23731200044</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.664</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5910.54211132008</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:axId val="95154888"/>
+        <c:axId val="57673256"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="95154888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Deployment configurations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="57673256"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="57673256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Energy consumption (in kJ)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="95154888"/>
+        <c:crossesAt val="0"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="1" sz="1300">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Average Network Usage</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NwUsage!$B$1:$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Headset A – Fog</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>NwUsage!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Config 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Config 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Config 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Config 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Config 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>NwUsage!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1435.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1881.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2772.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4554.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8119.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NwUsage!$C$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Headset B – Fog</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>NwUsage!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Config 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Config 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Config 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Config 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Config 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>NwUsage!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2753.52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4501.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10463.59</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15022.71</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29026.98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NwUsage!$D$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Headset A – Cloud</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>NwUsage!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Config 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Config 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Config 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Config 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Config 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>NwUsage!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>14214.66</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29098.14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>155315.47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>274409.77</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NwUsage!$E$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Headset B – Cloud</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>NwUsage!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Config 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Config 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Config 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Config 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Config 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>NwUsage!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>19775.65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41293.48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91380.32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>219381.92</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>359516.81</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:axId val="68499548"/>
+        <c:axId val="89303008"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="68499548"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Physical Infrastructure Configurations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="89303008"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="89303008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Network usage (in Bytes)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="68499548"/>
+        <c:crossesAt val="0"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -651,11 +2367,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="12389741"/>
-        <c:axId val="28233680"/>
+        <c:axId val="50149215"/>
+        <c:axId val="57914578"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="12389741"/>
+        <c:axId val="50149215"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -691,14 +2407,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="28233680"/>
+        <c:crossAx val="57914578"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="28233680"/>
+        <c:axId val="57914578"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="250"/>
@@ -744,1279 +2460,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="12389741"/>
-        <c:crossesAt val="0"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr sz="1300">
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Execution Time of Simulation</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Time!$A$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Headset A – Fog</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:size val="7"/>
-          </c:marker>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Time!$A$7:$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Config 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Config 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Config 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Config 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Config 5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Time!$B$1:$F$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1541</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2665</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2905</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3499</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4925</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Time!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Headset B – Fog</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:size val="7"/>
-          </c:marker>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Time!$A$7:$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Config 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Config 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Config 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Config 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Config 5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Time!$B$2:$F$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1420</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1701</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2682</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4174</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7771</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Time!$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Headset A – Cloud</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:size val="7"/>
-          </c:marker>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Time!$A$7:$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Config 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Config 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Config 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Config 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Config 5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Time!$B$3:$F$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1653</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1955</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2609</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5858</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10522</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Time!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Headset B – Cloud</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="579d1c"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="579d1c"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:size val="7"/>
-          </c:marker>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Time!$A$7:$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Config 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Config 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Config 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Config 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Config 5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Time!$B$4:$F$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2113</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2133</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3415</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7385</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12748</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="32796582"/>
-        <c:axId val="58912490"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="32796582"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr sz="900">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Physical topology configuration</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="58912490"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="58912490"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr sz="900">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Execution time (in milliseconds)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="32796582"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="1" sz="1300">
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Energy consumption</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>energy!$B$4:$B$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Smartphones</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>energy!$C$1:$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Headset A – Fog</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Headset A – Cloud</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Headset B – Fog</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Headset B – Cloud</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>energy!$C$4:$F$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>26698.656</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>26698.656</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16325.2430382097</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>26698.656</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>energy!$B$3:$B$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Edge Devices</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>energy!$C$1:$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Headset A – Fog</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Headset A – Cloud</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Headset B – Fog</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Headset B – Cloud</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>energy!$C$3:$F$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2786.18826214047</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1780.78632886423</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4889.50284828172</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3952.88403569707</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>energy!$B$2:$B$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Datacenter Vms</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>energy!$C$1:$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Headset A – Fog</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Headset A – Cloud</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Headset B – Fog</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Headset B – Cloud</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>energy!$C$2:$F$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>29.664</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3708.23731200044</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>29.664</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5910.54211132008</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:axId val="3549125"/>
-        <c:axId val="22415905"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="3549125"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="1" sz="900">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Deployment configurations</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="22415905"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="22415905"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="1" sz="900">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Energy consumed (in kJ)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="3549125"/>
-        <c:crossesAt val="0"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="1" sz="1300">
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Average Network Usage</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>NwUsage!$B$1:$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Headset A – Fog</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>NwUsage!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Config 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Config 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Config 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Config 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Config 5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>NwUsage!$B$2:$B$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1435.6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1881.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2772.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4554.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8119.6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>NwUsage!$C$1:$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Headset B – Fog</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>NwUsage!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Config 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Config 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Config 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Config 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Config 5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>NwUsage!$C$2:$C$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2753.52</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4501.05</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10463.59</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15022.71</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>29026.98</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>NwUsage!$D$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Headset A – Cloud</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>NwUsage!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Config 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Config 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Config 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Config 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Config 5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>NwUsage!$D$2:$D$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>14214.66</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>29098.14</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>64020</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>155315.47</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>274409.77</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>NwUsage!$E$1:$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Headset B – Cloud</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="579d1c"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>NwUsage!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Config 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Config 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Config 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Config 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Config 5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>NwUsage!$E$2:$E$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>19775.65</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>41293.48</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>91380.32</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>219381.92</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>359516.81</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:axId val="70707359"/>
-        <c:axId val="58426875"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="70707359"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="1" sz="900">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Physical Infrastructure Configurations</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="58426875"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="58426875"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="1" sz="900">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Network usage (in Bytes)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="70707359"/>
+        <c:crossAx val="50149215"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -2055,16 +2499,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>681480</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>117720</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>206640</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>102960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>752760</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>108720</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>276840</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2072,8 +2516,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1884600" y="2393280"/>
-        <a:ext cx="5761080" cy="3242160"/>
+        <a:off x="2198520" y="3191400"/>
+        <a:ext cx="5759640" cy="3239640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2091,15 +2535,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>542160</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>115200</xdr:rowOff>
+      <xdr:colOff>708480</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>108720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1263960</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>103320</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>779400</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>99360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2107,8 +2551,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2790000" y="3203640"/>
-        <a:ext cx="5759280" cy="3239280"/>
+        <a:off x="1911600" y="2384280"/>
+        <a:ext cx="5760720" cy="3241800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2125,16 +2569,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1198440</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>60120</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>414360</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>63360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1225080</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>48240</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1138680</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>18000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2142,8 +2586,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1198440" y="2010600"/>
-        <a:ext cx="5759280" cy="3239280"/>
+        <a:off x="2662200" y="2501640"/>
+        <a:ext cx="5761800" cy="2880720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2160,16 +2604,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>877680</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>86040</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1225440</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>51120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1642320</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>74160</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>14760</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2177,8 +2621,43 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2539440" y="2199240"/>
-        <a:ext cx="5759280" cy="3239280"/>
+        <a:off x="1225440" y="2001600"/>
+        <a:ext cx="5758920" cy="3238920"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>904680</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>77040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1668960</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>64800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="2566440" y="2190240"/>
+        <a:ext cx="5758920" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2196,10 +2675,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2657,448 +3136,588 @@
         <v>274409.77</v>
       </c>
     </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>29584099</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>24149005</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>27739859</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>23553005</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>30489023</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>23206509</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>47422601</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>21619787</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>22910272</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>20096904</v>
+      </c>
+    </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1" t="s">
+      <c r="A15" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1" t="s">
+      <c r="B15" s="0" t="n">
+        <v>215503669</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>107825741</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>106569645</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>119721508</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>101983253</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>109837393</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>174430930</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>90099204</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>214296645</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>158203884</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1" t="s">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1" t="s">
+      <c r="E17" s="1"/>
+      <c r="F17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="4" t="s">
+      <c r="G17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F18" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G18" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H18" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I18" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J18" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K18" s="4" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="2" t="n">
-        <v>18.433</v>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>215.4505</v>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>18.433</v>
-      </c>
-      <c r="E17" s="2" t="n">
-        <v>215.904</v>
-      </c>
-      <c r="F17" s="2" t="n">
-        <v>23.211</v>
-      </c>
-      <c r="G17" s="2" t="n">
-        <v>216.5865</v>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>19.4687142857143</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>220.711166666667</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>20.058</v>
-      </c>
-      <c r="K17" s="2" t="n">
-        <v>239.566750000004</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="2" t="n">
-        <v>3708</v>
-      </c>
-      <c r="C18" s="2" t="n">
-        <v>701032.831999858</v>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>7416</v>
-      </c>
-      <c r="E18" s="2" t="n">
-        <v>1428914.88000142</v>
-      </c>
-      <c r="F18" s="2" t="n">
-        <v>14832</v>
-      </c>
-      <c r="G18" s="2" t="n">
-        <v>2788272.62400021</v>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>29664</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>5910542.11132008</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>59328</v>
-      </c>
-      <c r="K18" s="2" t="n">
-        <v>8906448.72166742</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>608457.486244872</v>
+        <v>18.433</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>317555.163739914</v>
+        <v>215.4505</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>611782.181999867</v>
+        <v>18.433</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>324082.20472182</v>
+        <v>215.904</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>607119.508135474</v>
+        <v>23.211</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>372365.459556794</v>
+        <v>216.5865</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>611187.856035215</v>
+        <v>19.4687142857143</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>494110.504462134</v>
+        <v>220.711166666667</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>608304.952911044</v>
+        <v>20.058</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>324293.319591044</v>
+        <v>239.566750000004</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>3708</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>701032.831999858</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>7416</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>1428914.88000142</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>14832</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>2788272.62400021</v>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>29664</v>
+      </c>
+      <c r="I20" s="2" t="n">
+        <v>5910542.11132008</v>
+      </c>
+      <c r="J20" s="2" t="n">
+        <v>59328</v>
+      </c>
+      <c r="K20" s="2" t="n">
+        <v>8906448.72166742</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>608457.486244872</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>317555.163739914</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>611782.181999867</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>324082.20472182</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>607119.508135474</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>372365.459556794</v>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>611187.856035215</v>
+      </c>
+      <c r="I21" s="2" t="n">
+        <v>494110.504462134</v>
+      </c>
+      <c r="J21" s="2" t="n">
+        <v>608304.952911044</v>
+      </c>
+      <c r="K21" s="2" t="n">
+        <v>324293.319591044</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="2" t="n">
+      <c r="B22" s="2" t="n">
         <v>514643.383179064</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C22" s="0" t="n">
         <f aca="false">83.4333*10000</f>
         <v>834333</v>
       </c>
-      <c r="D20" s="2" t="n">
+      <c r="D22" s="2" t="n">
         <v>509984.387553474</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E22" s="0" t="n">
         <f aca="false">83.4333*10000</f>
         <v>834333</v>
       </c>
-      <c r="F20" s="2" t="n">
+      <c r="F22" s="2" t="n">
         <v>512304.815220665</v>
       </c>
-      <c r="G20" s="0" t="n">
+      <c r="G22" s="0" t="n">
         <f aca="false">83.4333*10000</f>
         <v>834333</v>
       </c>
-      <c r="H20" s="2" t="n">
+      <c r="H22" s="2" t="n">
         <v>510163.844944052</v>
       </c>
-      <c r="I20" s="0" t="n">
+      <c r="I22" s="0" t="n">
         <f aca="false">83.4333*10000</f>
         <v>834333</v>
       </c>
-      <c r="J20" s="2" t="n">
+      <c r="J22" s="2" t="n">
         <v>513555.348114132</v>
       </c>
-      <c r="K20" s="0" t="n">
+      <c r="K22" s="0" t="n">
         <f aca="false">83.4333*10000</f>
         <v>834333</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="2" t="n">
+      <c r="B23" s="2" t="n">
         <v>1420</v>
       </c>
-      <c r="C21" s="2" t="n">
+      <c r="C23" s="2" t="n">
         <v>2113</v>
       </c>
-      <c r="D21" s="2" t="n">
+      <c r="D23" s="2" t="n">
         <v>1701</v>
       </c>
-      <c r="E21" s="2" t="n">
+      <c r="E23" s="2" t="n">
         <v>2133</v>
       </c>
-      <c r="F21" s="2" t="n">
+      <c r="F23" s="2" t="n">
         <v>2682</v>
       </c>
-      <c r="G21" s="2" t="n">
+      <c r="G23" s="2" t="n">
         <v>3415</v>
       </c>
-      <c r="H21" s="2" t="n">
+      <c r="H23" s="2" t="n">
         <v>4174</v>
       </c>
-      <c r="I21" s="2" t="n">
+      <c r="I23" s="2" t="n">
         <v>7385</v>
       </c>
-      <c r="J21" s="2" t="n">
+      <c r="J23" s="2" t="n">
         <v>7771</v>
       </c>
-      <c r="K21" s="2" t="n">
+      <c r="K23" s="2" t="n">
         <v>12748</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="2" t="n">
-        <v>0.447508447847659</v>
-      </c>
-      <c r="C22" s="2" t="n">
-        <v>0.142046962683567</v>
-      </c>
-      <c r="D22" s="2" t="n">
-        <v>0.112706823591884</v>
-      </c>
-      <c r="E22" s="2" t="n">
-        <v>0.0803437500185186</v>
-      </c>
-      <c r="F22" s="2" t="n">
-        <v>0.139353393015806</v>
-      </c>
-      <c r="G22" s="2" t="n">
-        <v>0.102236652862461</v>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>0.158266063131224</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>0.0314631473540825</v>
-      </c>
-      <c r="J22" s="2" t="n">
-        <v>0.0932126679587193</v>
-      </c>
-      <c r="K22" s="2" t="n">
-        <v>0.0310625772884931</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="2" t="n">
-        <v>0.12101273722489</v>
-      </c>
-      <c r="C23" s="2" t="n">
-        <v>0.114000115319432</v>
-      </c>
-      <c r="D23" s="2" t="n">
-        <v>0.438052909195794</v>
-      </c>
-      <c r="E23" s="2" t="n">
-        <v>0.113999999999578</v>
-      </c>
-      <c r="F23" s="2" t="n">
-        <v>0.114190454078</v>
-      </c>
-      <c r="G23" s="2" t="n">
-        <v>0.114000000002367</v>
-      </c>
-      <c r="H23" s="2" t="n">
-        <v>0.114063627779089</v>
-      </c>
-      <c r="I23" s="2" t="n">
-        <v>0.114001131921591</v>
-      </c>
-      <c r="J23" s="2" t="n">
-        <v>0.114013707144476</v>
-      </c>
-      <c r="K23" s="2" t="n">
-        <v>0.11412545020132</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>3.28748111473471</v>
+        <v>0.447508447847659</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>3.10006074115348</v>
+        <v>0.142046962683567</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>4.56044554377229</v>
+        <v>0.112706823591884</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>3.10000000000036</v>
+        <v>0.0803437500185186</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>6.33034870354503</v>
+        <v>0.139353393015806</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>3.10000000000037</v>
+        <v>0.102236652862461</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>6.75353136972465</v>
+        <v>0.158266063131224</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>4.40875047731798</v>
+        <v>0.0314631473540825</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>8.96279303081038</v>
+        <v>0.0932126679587193</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>3.10000000000036</v>
+        <v>0.0310625772884931</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>0.0500000000006063</v>
+        <v>0.12101273722489</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>0.200001430512145</v>
+        <v>0.114000115319432</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0.0499999999998787</v>
+        <v>0.438052909195794</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>9.1837991955845</v>
+        <v>0.113999999999578</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>0.0499999999998787</v>
+        <v>0.114190454078</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>5.11244052980861</v>
+        <v>0.114000000002367</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>0.0499999999998787</v>
+        <v>0.114063627779089</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>2.61000001120439</v>
+        <v>0.114001131921591</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.0499999999998787</v>
+        <v>0.114013707144476</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>3.29999999999927</v>
+        <v>0.11412545020132</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>3.28748111473471</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>3.10006074115348</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>4.56044554377229</v>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>3.10000000000036</v>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>6.33034870354503</v>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>3.10000000000037</v>
+      </c>
+      <c r="H26" s="2" t="n">
+        <v>6.75353136972465</v>
+      </c>
+      <c r="I26" s="2" t="n">
+        <v>4.40875047731798</v>
+      </c>
+      <c r="J26" s="2" t="n">
+        <v>8.96279303081038</v>
+      </c>
+      <c r="K26" s="2" t="n">
+        <v>3.10000000000036</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>0.0500000000006063</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>0.200001430512145</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>0.0499999999998787</v>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>9.1837991955845</v>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>0.0499999999998787</v>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>5.11244052980861</v>
+      </c>
+      <c r="H27" s="2" t="n">
+        <v>0.0499999999998787</v>
+      </c>
+      <c r="I27" s="2" t="n">
+        <v>2.61000001120439</v>
+      </c>
+      <c r="J27" s="2" t="n">
+        <v>0.0499999999998787</v>
+      </c>
+      <c r="K27" s="2" t="n">
+        <v>3.29999999999927</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="2" t="n">
+      <c r="B28" s="2" t="n">
         <v>2.52402839821523</v>
       </c>
-      <c r="C26" s="2" t="n">
+      <c r="C28" s="2" t="n">
         <v>0.366736915737374</v>
       </c>
-      <c r="D26" s="2" t="n">
+      <c r="D28" s="2" t="n">
         <v>1.83912117895014</v>
       </c>
-      <c r="E26" s="2" t="n">
+      <c r="E28" s="2" t="n">
         <v>0.804500856341677</v>
       </c>
-      <c r="F26" s="2" t="n">
+      <c r="F28" s="2" t="n">
         <v>3.30957551398578</v>
       </c>
-      <c r="G26" s="2" t="n">
+      <c r="G28" s="2" t="n">
         <v>1.5049961089428</v>
       </c>
-      <c r="H26" s="2" t="n">
+      <c r="H28" s="2" t="n">
         <v>2.58490275751841</v>
       </c>
-      <c r="I26" s="2" t="n">
+      <c r="I28" s="2" t="n">
         <v>0.560623497608666</v>
       </c>
-      <c r="J26" s="2" t="n">
+      <c r="J28" s="2" t="n">
         <v>2.67807332647083</v>
       </c>
-      <c r="K26" s="2" t="n">
+      <c r="K28" s="2" t="n">
         <v>4.65499999999884</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="2" t="n">
+      <c r="B29" s="2" t="n">
         <v>2753.52</v>
       </c>
-      <c r="C27" s="2" t="n">
+      <c r="C29" s="2" t="n">
         <v>19775.65</v>
       </c>
-      <c r="D27" s="2" t="n">
+      <c r="D29" s="2" t="n">
         <v>4501.05</v>
       </c>
-      <c r="E27" s="2" t="n">
+      <c r="E29" s="2" t="n">
         <v>41293.48</v>
       </c>
-      <c r="F27" s="2" t="n">
+      <c r="F29" s="2" t="n">
         <v>10463.59</v>
       </c>
-      <c r="G27" s="2" t="n">
+      <c r="G29" s="2" t="n">
         <v>91380.32</v>
       </c>
-      <c r="H27" s="2" t="n">
+      <c r="H29" s="2" t="n">
         <v>15022.71</v>
       </c>
-      <c r="I27" s="2" t="n">
+      <c r="I29" s="2" t="n">
         <v>219381.92</v>
       </c>
-      <c r="J27" s="2" t="n">
+      <c r="J29" s="2" t="n">
         <v>29026.98</v>
       </c>
-      <c r="K27" s="2" t="n">
+      <c r="K29" s="2" t="n">
         <v>359516.81</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>27464836</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>20485266</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>24181620</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>21282834</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>22782548</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>26764136</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>26613804</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>27062122</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <v>25150376</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <v>26195477</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>356502217</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>103889906</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>107432964</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>114251194</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>110115412</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>109607129</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>100838650</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>104032810</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <v>239927886</v>
+      </c>
+      <c r="K31" s="0" t="n">
+        <v>178227285</v>
       </c>
     </row>
   </sheetData>
@@ -3108,11 +3727,11 @@
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -3129,121 +3748,339 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K21" activeCellId="0" sqref="K21"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0561224489796"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7142857142857"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="2" t="n">
-        <v>1541</v>
-      </c>
-      <c r="C1" s="2" t="n">
-        <v>2665</v>
-      </c>
-      <c r="D1" s="2" t="n">
-        <v>2905</v>
-      </c>
-      <c r="E1" s="2" t="n">
-        <v>3499</v>
-      </c>
-      <c r="F1" s="2" t="n">
-        <v>4925</v>
+      <c r="B1" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>1420</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>1701</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>2682</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>4174</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>7771</v>
+        <v>30</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>29.584099</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>27.739859</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>30.489023</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>47.422601</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>22.910272</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>1653</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>1955</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>2609</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>5858</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>10522</v>
+        <v>31</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>27.464836</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>24.18162</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>22.782548</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>26.613804</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>25.150376</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>2113</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>2133</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>3415</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>7385</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>12748</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>24.149005</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>23.553005</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>23.206509</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>21.619787</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>20.096904</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>20.485266</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>21.282834</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>26.764136</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>27.062122</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>26.195477</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>215503669</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>107825741</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>106569645</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>119721508</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>101983253</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>109837393</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>174430930</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>90099204</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>214296645</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>158203884</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>31</v>
+        <v>19</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>356502217</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>103889906</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>107432964</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>114251194</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>110115412</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>109607129</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>100838650</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>104032810</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>239927886</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>178227285</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K15" s="0" t="n">
+        <v>29584099</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>27739859</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>30489023</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>47422601</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>22910272</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K16" s="0" t="n">
+        <v>27464836</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>24181620</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>22782548</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <v>26613804</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <v>25150376</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K17" s="0" t="n">
+        <v>24149005</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>23553005</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>23206509</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>21619787</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <v>20096904</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K18" s="0" t="n">
+        <v>20485266</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>21282834</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>26764136</v>
+      </c>
+      <c r="N18" s="0" t="n">
+        <v>27062122</v>
+      </c>
+      <c r="O18" s="0" t="n">
+        <v>26195477</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K20" s="0" t="n">
+        <f aca="false">K15/1000000</f>
+        <v>29.584099</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <f aca="false">L15/1000000</f>
+        <v>27.739859</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <f aca="false">M15/1000000</f>
+        <v>30.489023</v>
+      </c>
+      <c r="N20" s="0" t="n">
+        <f aca="false">N15/1000000</f>
+        <v>47.422601</v>
+      </c>
+      <c r="O20" s="0" t="n">
+        <f aca="false">O15/1000000</f>
+        <v>22.910272</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K21" s="0" t="n">
+        <f aca="false">K16/1000000</f>
+        <v>27.464836</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <f aca="false">L16/1000000</f>
+        <v>24.18162</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <f aca="false">M16/1000000</f>
+        <v>22.782548</v>
+      </c>
+      <c r="N21" s="0" t="n">
+        <f aca="false">N16/1000000</f>
+        <v>26.613804</v>
+      </c>
+      <c r="O21" s="0" t="n">
+        <f aca="false">O16/1000000</f>
+        <v>25.150376</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K22" s="0" t="n">
+        <f aca="false">K17/1000000</f>
+        <v>24.149005</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <f aca="false">L17/1000000</f>
+        <v>23.553005</v>
+      </c>
+      <c r="M22" s="0" t="n">
+        <f aca="false">M17/1000000</f>
+        <v>23.206509</v>
+      </c>
+      <c r="N22" s="0" t="n">
+        <f aca="false">N17/1000000</f>
+        <v>21.619787</v>
+      </c>
+      <c r="O22" s="0" t="n">
+        <f aca="false">O17/1000000</f>
+        <v>20.096904</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K23" s="0" t="n">
+        <f aca="false">K18/1000000</f>
+        <v>20.485266</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <f aca="false">L18/1000000</f>
+        <v>21.282834</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <f aca="false">M18/1000000</f>
+        <v>26.764136</v>
+      </c>
+      <c r="N23" s="0" t="n">
+        <f aca="false">N18/1000000</f>
+        <v>27.062122</v>
+      </c>
+      <c r="O23" s="0" t="n">
+        <f aca="false">O18/1000000</f>
+        <v>26.195477</v>
       </c>
     </row>
   </sheetData>
@@ -3263,10 +4100,144 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B34" activeCellId="0" sqref="B34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0561224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="2" t="n">
+        <v>1541</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>2665</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2905</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3499</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4925</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>1420</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>1701</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>2682</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>4174</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>7771</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>1653</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>1955</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>2609</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>5858</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>10522</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>2113</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>2133</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>3415</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>7385</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>12748</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I30" activeCellId="0" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3280,30 +4251,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="E1" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>33</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>29.664</v>
@@ -3320,7 +4291,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2786.18826214047</v>
@@ -3337,7 +4308,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>26698.656</v>
@@ -3419,7 +4390,7 @@
       </c>
       <c r="D12" s="0" t="n">
         <f aca="false">D3*8</f>
-        <v>14246.2906309139</v>
+        <v>14246.2906309138</v>
       </c>
       <c r="E12" s="0" t="n">
         <f aca="false">E3*8</f>
@@ -3441,7 +4412,7 @@
       </c>
       <c r="E13" s="0" t="n">
         <f aca="false">E4*32</f>
-        <v>522407.777222709</v>
+        <v>522407.77722271</v>
       </c>
       <c r="F13" s="0" t="n">
         <f aca="false">F4*32</f>
@@ -3460,7 +4431,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -3483,19 +4454,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>25</v>
-      </c>
       <c r="E1" s="0" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3510,7 +4481,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>1435.6</v>
@@ -3537,7 +4508,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>1881.2</v>
@@ -3564,7 +4535,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>2772.4</v>
@@ -3591,7 +4562,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>4554.8</v>
@@ -3618,7 +4589,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>8119.6</v>
@@ -3655,7 +4626,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -3677,24 +4648,24 @@
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>25</v>
-      </c>
       <c r="E3" s="0" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>13.114</v>
@@ -3711,7 +4682,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>13.114</v>
@@ -3728,7 +4699,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>13.114</v>
@@ -3745,7 +4716,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B7" s="3" t="n">
         <v>13.114</v>
@@ -3762,7 +4733,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B8" s="3" t="n">
         <v>13.114</v>
